--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634933.1216259946</v>
+        <v>632231.9049745378</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673422</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>221.0427070190021</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015063</v>
       </c>
-      <c r="G2" t="n">
-        <v>232.2791855053266</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>104.3766310120716</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>102.0774491117279</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>68.05955538367333</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>62.82251186815866</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>356.3265794398718</v>
       </c>
       <c r="F5" t="n">
-        <v>381.8175611493689</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154302</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -978,13 +978,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951737</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713948</v>
+        <v>4.360182258713976</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>69.09596469866561</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>165.4946697765235</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>138.9464578097568</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643649</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422209</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>228.9176563786538</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1184,19 +1184,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>29.41462549474736</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5377921948936</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.906162259191587</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1348,13 +1348,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>174.2429604924657</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>6.605422924745178</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>222.6434959374229</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184543</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9590024596873</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530784</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>118.0940871474039</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.35820779003554</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905233</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>115.7228684476123</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>172.2213099390672</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>184.5018925095682</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0177171766857</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>82.30974811734356</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.372291733706</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471648</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,13 +3481,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>191.9440058362637</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428217</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>1.799772605716393</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716689</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716689</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716689</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716689</v>
+        <v>634.1670622275113</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044908</v>
+        <v>627.2215614783079</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429522</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>788.477863438847</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>788.477863438847</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X2" t="n">
-        <v>788.477863438847</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716689</v>
+        <v>900.5447187946894</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>275.4624604776057</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>275.4624604776057</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>126.5280508163544</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4410,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>141.1068094710485</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>287.8512331313452</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>478.451922227869</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442528</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="U3" t="n">
-        <v>611.5747118810663</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="V3" t="n">
-        <v>376.4226036493235</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="W3" t="n">
-        <v>273.3140691930327</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="X3" t="n">
-        <v>65.46256898749988</v>
+        <v>483.2227592425596</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749988</v>
+        <v>275.4624604776057</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>655.8188745561096</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>655.8188745561096</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>505.7022351437738</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>505.7022351437738</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8122876458634</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008668</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>986.1084943659509</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512193</v>
+        <v>779.3214597764623</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512193</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512193</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="V4" t="n">
-        <v>655.8188745561096</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="W4" t="n">
-        <v>655.8188745561096</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>655.8188745561096</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>655.8188745561096</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>803.9326838462437</v>
+        <v>410.1107921235709</v>
       </c>
       <c r="C5" t="n">
-        <v>803.9326838462437</v>
+        <v>410.1107921235709</v>
       </c>
       <c r="D5" t="n">
-        <v>803.9326838462437</v>
+        <v>410.1107921235709</v>
       </c>
       <c r="E5" t="n">
-        <v>803.9326838462437</v>
+        <v>50.1849543055186</v>
       </c>
       <c r="F5" t="n">
-        <v>418.2583796549619</v>
+        <v>43.23945355631513</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="J5" t="n">
         <v>93.76641159275096</v>
@@ -4571,46 +4571,46 @@
         <v>239.0325989245553</v>
       </c>
       <c r="L5" t="n">
-        <v>456.149911482562</v>
+        <v>456.1499114825618</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748842</v>
+        <v>729.4041931748837</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202377</v>
+        <v>1011.693823202376</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.91665479841</v>
+        <v>1264.916654798409</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189407</v>
+        <v>1446.535482189406</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518248</v>
+        <v>1389.996673518247</v>
       </c>
       <c r="T5" t="n">
-        <v>1177.398442107323</v>
+        <v>1389.996673518247</v>
       </c>
       <c r="U5" t="n">
-        <v>1177.398442107323</v>
+        <v>1136.345205654765</v>
       </c>
       <c r="V5" t="n">
-        <v>1177.398442107323</v>
+        <v>1136.345205654765</v>
       </c>
       <c r="W5" t="n">
-        <v>1177.398442107323</v>
+        <v>783.5765503846508</v>
       </c>
       <c r="X5" t="n">
-        <v>803.9326838462437</v>
+        <v>410.1107921235709</v>
       </c>
       <c r="Y5" t="n">
-        <v>803.9326838462437</v>
+        <v>410.1107921235709</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>390.7223205711656</v>
+        <v>351.6826054794764</v>
       </c>
       <c r="C6" t="n">
-        <v>216.2692912900386</v>
+        <v>177.2295761983494</v>
       </c>
       <c r="D6" t="n">
-        <v>67.33488162878731</v>
+        <v>177.2295761983494</v>
       </c>
       <c r="E6" t="n">
-        <v>67.33488162878731</v>
+        <v>177.2295761983494</v>
       </c>
       <c r="F6" t="n">
-        <v>67.33488162878731</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878731</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878731</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563402</v>
+        <v>174.2721860626387</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169442</v>
+        <v>284.4686930039487</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482958</v>
+        <v>478.9640368353002</v>
       </c>
       <c r="M6" t="n">
-        <v>717.1801830471845</v>
+        <v>829.7791710122376</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.03103358446</v>
+        <v>1097.031033584459</v>
       </c>
       <c r="O6" t="n">
         <v>1319.294480749978</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948666</v>
+        <v>1478.347425948665</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261719</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757969</v>
+        <v>1530.346686757968</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152064</v>
+        <v>1385.878273152063</v>
       </c>
       <c r="T6" t="n">
-        <v>1316.084369416038</v>
+        <v>1189.973630703747</v>
       </c>
       <c r="U6" t="n">
-        <v>1087.963285736643</v>
+        <v>961.8525470243515</v>
       </c>
       <c r="V6" t="n">
-        <v>852.8111775049001</v>
+        <v>726.7004387926088</v>
       </c>
       <c r="W6" t="n">
-        <v>598.5738207766984</v>
+        <v>559.5341056850093</v>
       </c>
       <c r="X6" t="n">
-        <v>390.7223205711656</v>
+        <v>351.6826054794764</v>
       </c>
       <c r="Y6" t="n">
-        <v>390.7223205711656</v>
+        <v>351.6826054794764</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.9694565306895</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="C7" t="n">
-        <v>32.61949914709669</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="D7" t="n">
-        <v>32.61949914709669</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="E7" t="n">
-        <v>32.61949914709669</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="F7" t="n">
-        <v>32.61949914709669</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709669</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709669</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709669</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223265</v>
+        <v>157.4322756223264</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830385</v>
+        <v>375.1387655830384</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388147</v>
+        <v>615.0688576388145</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974818</v>
+        <v>854.7285647974815</v>
       </c>
       <c r="O7" t="n">
         <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.26700593402</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495182</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495183</v>
+        <v>1030.691890529572</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495183</v>
+        <v>806.0266324061161</v>
       </c>
       <c r="U7" t="n">
-        <v>945.0606656715543</v>
+        <v>574.7966764680818</v>
       </c>
       <c r="V7" t="n">
-        <v>690.3761774656674</v>
+        <v>320.112188262195</v>
       </c>
       <c r="W7" t="n">
-        <v>400.9590074287068</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="X7" t="n">
-        <v>172.9694565306895</v>
+        <v>30.69501822523439</v>
       </c>
       <c r="Y7" t="n">
-        <v>172.9694565306895</v>
+        <v>30.69501822523439</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181.996585635751</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1945.601675872643</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1572.135917611563</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1181.996585635751</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.2765195627319</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329318</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>927.7205539329318</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>751.7175635365018</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.9249843929716</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1585.37427458423</v>
+        <v>1485.490329133576</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.7021302158</v>
+        <v>1485.490329133576</v>
       </c>
       <c r="D11" t="n">
-        <v>1220.43643160905</v>
+        <v>1127.224630526826</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>741.4363779285818</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194425</v>
+        <v>741.4363779285817</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>326.8206133697272</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625332</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087834</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484046</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.9885135353</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3493.127967479999</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796035</v>
+        <v>3776.999350345382</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.9046893774</v>
+        <v>3573.020743926746</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498928</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155357</v>
+        <v>2988.463914704704</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885243</v>
+        <v>2635.695259434589</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624163</v>
+        <v>2262.22950117351</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.974114648351</v>
+        <v>1872.090169197698</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870412</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>470.7769964046661</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929952</v>
+        <v>488.5008422034045</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>996.4574081599334</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783256</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.8476900120641</v>
+        <v>365.760805558377</v>
       </c>
       <c r="C13" t="n">
-        <v>283.9115070841572</v>
+        <v>196.8246226304701</v>
       </c>
       <c r="D13" t="n">
-        <v>283.9115070841572</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="E13" t="n">
-        <v>283.9115070841572</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="F13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344807</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.36296874281</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925585</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742807</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177248</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.379943126699</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1372.695454920812</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1083.278284883851</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>855.2887339858339</v>
+        <v>586.5533847019071</v>
       </c>
       <c r="Y13" t="n">
-        <v>634.4961548423038</v>
+        <v>365.760805558377</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5279,19 +5279,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,13 +5434,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429801</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429801</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5747,34 +5747,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311996</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032927</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614394</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,25 +6479,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876689</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>411.963121559762</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>411.963121559762</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>411.963121559762</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179087</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188007</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,22 +6871,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854706</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925705</v>
+        <v>961.4835393015908</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490404</v>
+        <v>740.6909601580606</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135295</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856226</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400722</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.502065570312</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,28 +7421,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400714</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,22 +7819,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>45.78351343583213</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637028</v>
+        <v>34.43939438637034</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>117.9015257860033</v>
+        <v>105.5468419254464</v>
       </c>
       <c r="N6" t="n">
-        <v>113.7363514798524</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="N9" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.011347179818479e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-3.940996767551754e-13</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>358.6674688462624</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>67.33400740195178</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>30.52138587080844</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>84.0628402328957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.89260457060003</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624223</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294975</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>53.48834544996993</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294977</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856165</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>101.682581879676</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>38.59775584152669</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.3057249008688</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187232</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>60.19363748756426</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>146.815700412496</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>923055.882923143</v>
+        <v>923055.8829231438</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1016252.577192656</v>
+        <v>1016252.577192655</v>
       </c>
     </row>
     <row r="8">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="C2" t="n">
         <v>410520.8849321416</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>410520.8849321417</v>
       </c>
-      <c r="D2" t="n">
-        <v>410520.8849321416</v>
-      </c>
       <c r="E2" t="n">
-        <v>366294.622137198</v>
+        <v>366294.6221371983</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="G2" t="n">
-        <v>403573.2998450029</v>
-      </c>
       <c r="H2" t="n">
-        <v>403573.2998450033</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
         <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="O2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="O2" t="n">
-        <v>403573.2998450029</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26366,40 +26366,40 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657059</v>
+        <v>132804.2190657056</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929387</v>
+        <v>265413.0723929388</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354577</v>
+        <v>313577.1573545784</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704292</v>
+        <v>189308.2687704279</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911416</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417398</v>
+        <v>30877.42926417389</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049589</v>
+        <v>65018.34502049594</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273067</v>
+        <v>81897.40371273106</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202374</v>
+        <v>49839.57413202338</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>210579.7944078832</v>
+        <v>210579.7944078833</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8011.89386708542</v>
+        <v>8011.893867085435</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26433,31 +26433,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426732019</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="J4" t="n">
-        <v>8117.312426731934</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731934</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731949</v>
-      </c>
       <c r="M4" t="n">
-        <v>8117.312426731938</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731956</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731989</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426732016</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667487</v>
+        <v>72593.65038667484</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738564</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-579368.7662615491</v>
+        <v>-579368.7662615492</v>
       </c>
       <c r="C6" t="n">
-        <v>-5456.778928122323</v>
+        <v>-5456.778928122207</v>
       </c>
       <c r="D6" t="n">
-        <v>-82147.96016250542</v>
+        <v>-82147.96016250554</v>
       </c>
       <c r="E6" t="n">
-        <v>-40431.91415185011</v>
+        <v>-40653.04546582598</v>
       </c>
       <c r="F6" t="n">
-        <v>105025.1888239348</v>
+        <v>104990.4508985002</v>
       </c>
       <c r="G6" t="n">
-        <v>294333.4575943638</v>
+        <v>294298.7196689282</v>
       </c>
       <c r="H6" t="n">
-        <v>294333.457594364</v>
+        <v>294298.7196689282</v>
       </c>
       <c r="I6" t="n">
-        <v>294333.4575943638</v>
+        <v>294298.7196689283</v>
       </c>
       <c r="J6" t="n">
-        <v>225334.3031752497</v>
+        <v>225299.5652498142</v>
       </c>
       <c r="K6" t="n">
-        <v>263456.0283301899</v>
+        <v>263421.2904047542</v>
       </c>
       <c r="L6" t="n">
-        <v>229315.112573868</v>
+        <v>229280.3746484323</v>
       </c>
       <c r="M6" t="n">
-        <v>212436.0538816333</v>
+        <v>212401.3159561973</v>
       </c>
       <c r="N6" t="n">
-        <v>244493.8834623403</v>
+        <v>244459.1455369048</v>
       </c>
       <c r="O6" t="n">
-        <v>294333.4575943639</v>
+        <v>294298.7196689282</v>
       </c>
       <c r="P6" t="n">
-        <v>294333.4575943641</v>
+        <v>294298.7196689282</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.331951169574</v>
+        <v>717.3319511695738</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154302</v>
+        <v>383.6877278154299</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490088</v>
+        <v>969.2208239490101</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,28 +26805,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000957</v>
+        <v>103.2769374000954</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479652</v>
+        <v>216.7329409479653</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974109</v>
+        <v>268.1763450974122</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.973847813924</v>
+        <v>119.9738478139236</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846086</v>
+        <v>256.8971042846089</v>
       </c>
       <c r="E4" t="n">
-        <v>328.63599184897</v>
+        <v>328.6359918489713</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813924</v>
+        <v>119.9738478139236</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846086</v>
+        <v>256.8971042846089</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489698</v>
+        <v>328.6359918489713</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506398</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813924</v>
+        <v>119.9738478139236</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846086</v>
+        <v>256.8971042846089</v>
       </c>
       <c r="M4" t="n">
-        <v>328.63599184897</v>
+        <v>328.6359918489713</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506383</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>180.5549891403834</v>
+        <v>191.7914676267079</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,7 +27436,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>53.26844944332935</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>149.6175340491917</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.44504749999059</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
-        <v>189.3151314556694</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>25.60379063239003</v>
       </c>
       <c r="F5" t="n">
-        <v>25.05848459234255</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233972</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863703</v>
+        <v>99.30025118863706</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27698,13 +27698,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
@@ -27713,7 +27713,7 @@
         <v>97.33388804333229</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>124.849631325167</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>86.20031338439614</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>28.30036328887101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643678</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>119.1307056315185</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>57.3308157367384</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>319.8263432226656</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.193308483575436</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>157.4004377856126</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>51.46669489657143</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-4.816298607236513e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>2.883746537365119</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579054</v>
+        <v>29.53316922579053</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817688</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756931</v>
+        <v>244.754382675693</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023586</v>
+        <v>366.8233736023585</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952465</v>
+        <v>455.0768316952464</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791134</v>
+        <v>506.3606591791133</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284021</v>
+        <v>514.554104028402</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974777</v>
+        <v>485.8788493974775</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562762</v>
+        <v>414.6863567562761</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868878</v>
+        <v>311.4121838868877</v>
       </c>
       <c r="R5" t="n">
         <v>181.1461434277618</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020773</v>
+        <v>65.71337422020771</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731581</v>
       </c>
       <c r="U5" t="n">
         <v>0.2306997229892095</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270404</v>
       </c>
       <c r="H6" t="n">
         <v>14.90155619316417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189771</v>
+        <v>53.12316808189769</v>
       </c>
       <c r="J6" t="n">
         <v>145.7740335862622</v>
@@ -31370,34 +31370,34 @@
         <v>249.1510419453793</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438657</v>
+        <v>335.0143230438656</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874178</v>
+        <v>390.9459133874177</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189111</v>
+        <v>401.2930884189109</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348668</v>
+        <v>367.1047769348667</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190653</v>
+        <v>294.6339480190651</v>
       </c>
       <c r="Q6" t="n">
         <v>196.9549915739555</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392919</v>
+        <v>95.79765189392916</v>
       </c>
       <c r="S6" t="n">
         <v>28.65944163399192</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098904</v>
+        <v>6.219132670989039</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730529</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141854</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.5008302990794</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572052</v>
+        <v>38.9005589257205</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402913</v>
+        <v>91.4539440040291</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401172</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545445</v>
+        <v>192.3155201545444</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773272</v>
       </c>
       <c r="N7" t="n">
         <v>197.9483399022532</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669597</v>
+        <v>182.8373307669596</v>
       </c>
       <c r="P7" t="n">
         <v>156.4489225960657</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266056</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565102</v>
+        <v>58.162685745651</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101759</v>
+        <v>22.54303853101758</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52698388606065</v>
+        <v>5.526983886060648</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864669</v>
+        <v>0.07055724109864668</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869147</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639242</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203919</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.792336797513</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544661</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954566</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180174</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956809</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620362</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825973</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469216</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206114</v>
+        <v>156.4572543240544</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821484</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.563237034051</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924478</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627656</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798458</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.26317018837749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>162.5000833330452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>121.2219182534626</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34787,7 +34787,7 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015063</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900677</v>
+        <v>63.70847814900668</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573781</v>
+        <v>146.733522557378</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252592</v>
+        <v>219.3104167252591</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518407</v>
+        <v>276.0144259518405</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318112</v>
+        <v>285.1410404318111</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757909</v>
+        <v>255.7806379757908</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010067</v>
+        <v>183.4533610010066</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243828</v>
+        <v>89.10649401243822</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959556</v>
+        <v>145.0274422600043</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710204</v>
+        <v>111.3096029710203</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639915</v>
+        <v>196.4599432639914</v>
       </c>
       <c r="M6" t="n">
-        <v>366.7134052514028</v>
+        <v>354.3587213908458</v>
       </c>
       <c r="N6" t="n">
-        <v>383.6877278154302</v>
+        <v>269.9513763355776</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904224</v>
+        <v>224.5085324904223</v>
       </c>
       <c r="P6" t="n">
-        <v>160.659540604735</v>
+        <v>160.6595406047349</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793399</v>
+        <v>56.97321748793394</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>128.0174317142344</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.9055454148606</v>
       </c>
       <c r="M7" t="n">
         <v>242.3536283391678</v>
@@ -35112,7 +35112,7 @@
         <v>153.7274818609592</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491129</v>
+        <v>22.15508137491126</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N9" t="n">
-        <v>577.7882979947786</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937056</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525325</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681839</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739941</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067667</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081477</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073725</v>
+        <v>17.90287454418027</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507177</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480033</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240146</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186287</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>23.94570355317107</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>23.94570355317105</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
